--- a/public/sample_uploads/capital_remittance_payments_multi_currency_errors.xlsx
+++ b/public/sample_uploads/capital_remittance_payments_multi_currency_errors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EE0B1-557C-4CC6-B55C-86A1ACCFD3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754865A2-E0F8-49D0-BF2C-821BAAAB1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Investor *</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>C999</t>
-  </si>
-  <si>
-    <t>Investor 6</t>
   </si>
   <si>
     <t>Capital Call 25</t>
@@ -488,7 +485,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -514,13 +511,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -930,13 +927,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="D14">
         <v>80000</v>
@@ -951,7 +948,7 @@
         <v>55</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="K14" s="2">
         <v>44562</v>
